--- a/GradeDistributionsDB/Summer2013/Output/Summer2013 GB.xlsx
+++ b/GradeDistributionsDB/Summer2013/Output/Summer2013 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>INTA-602</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t>9.09%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
   </si>
   <si>
     <t>INTA-652</t>
@@ -222,12 +228,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -521,15 +526,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,397 +559,442 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.667</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>2.2</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>3.167</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>3.2</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>3.833</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>3.818</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
         <v>3.546</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
         <v>3.733</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
         <v>3.8</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
         <v>3.444</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="n">
         <v>3.429</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
         <v>3.714</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" t="n">
         <v>3.546</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
